--- a/results/mp/logistic/corona/confidence/168/stop-words-desired-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/stop-words-desired-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,12 +46,12 @@
     <t>crisis</t>
   </si>
   <si>
+    <t>die</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
     <t>fraud</t>
   </si>
   <si>
@@ -76,85 +76,88 @@
     <t>free</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>best</t>
+    <t>join</t>
   </si>
   <si>
     <t>safe</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>support</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>positive</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
+    <t>relief</t>
+  </si>
+  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>relief</t>
+    <t>like</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>help</t>
   </si>
   <si>
     <t>gt</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>save</t>
+    <t>please</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>please</t>
+    <t>care</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
     <t>safety</t>
-  </si>
-  <si>
-    <t>protect</t>
   </si>
   <si>
     <t>increase</t>
@@ -515,7 +518,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -526,7 +529,7 @@
         <v>16</v>
       </c>
       <c r="J1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -584,13 +587,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9473684210526315</v>
+        <v>0.868421052631579</v>
       </c>
       <c r="C3">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D3">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -602,7 +605,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>17</v>
@@ -634,13 +637,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8595890410958904</v>
+        <v>0.8458904109589042</v>
       </c>
       <c r="C4">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D4">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -652,7 +655,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>18</v>
@@ -684,13 +687,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8529411764705882</v>
+        <v>0.8378378378378378</v>
       </c>
       <c r="C5">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D5">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -702,19 +705,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K5">
-        <v>0.9583333333333334</v>
+        <v>0.9666666666666667</v>
       </c>
       <c r="L5">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M5">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -726,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -734,13 +737,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8108108108108109</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C6">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -752,19 +755,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K6">
-        <v>0.9444444444444444</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L6">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="M6">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -776,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -784,13 +787,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7777777777777778</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="C7">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D7">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -802,19 +805,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K7">
-        <v>0.9216710182767625</v>
+        <v>0.9190600522193212</v>
       </c>
       <c r="L7">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M7">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -826,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -834,13 +837,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5925925925925926</v>
+        <v>0.5767195767195767</v>
       </c>
       <c r="C8">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D8">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -852,19 +855,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K8">
-        <v>0.9152542372881356</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L8">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="M8">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -876,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -884,13 +887,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.439922480620155</v>
+        <v>0.5038759689922481</v>
       </c>
       <c r="C9">
-        <v>227</v>
+        <v>260</v>
       </c>
       <c r="D9">
-        <v>227</v>
+        <v>260</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -902,19 +905,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>289</v>
+        <v>256</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K9">
-        <v>0.9084507042253521</v>
+        <v>0.9069767441860465</v>
       </c>
       <c r="L9">
-        <v>129</v>
+        <v>39</v>
       </c>
       <c r="M9">
-        <v>129</v>
+        <v>39</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -926,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -934,13 +937,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.2214765100671141</v>
+        <v>0.2013422818791946</v>
       </c>
       <c r="C10">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D10">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -952,19 +955,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K10">
-        <v>0.8962264150943396</v>
+        <v>0.9014084507042254</v>
       </c>
       <c r="L10">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="M10">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -976,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -984,13 +987,13 @@
         <v>25</v>
       </c>
       <c r="K11">
-        <v>0.8936170212765957</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L11">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="M11">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1002,7 +1005,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1010,13 +1013,13 @@
         <v>26</v>
       </c>
       <c r="K12">
-        <v>0.8928571428571429</v>
+        <v>0.890625</v>
       </c>
       <c r="L12">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="M12">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1028,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1036,13 +1039,13 @@
         <v>27</v>
       </c>
       <c r="K13">
-        <v>0.890625</v>
+        <v>0.8773584905660378</v>
       </c>
       <c r="L13">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="M13">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1054,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1062,13 +1065,13 @@
         <v>28</v>
       </c>
       <c r="K14">
-        <v>0.8888888888888888</v>
+        <v>0.875</v>
       </c>
       <c r="L14">
-        <v>32</v>
+        <v>140</v>
       </c>
       <c r="M14">
-        <v>32</v>
+        <v>140</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1080,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1088,13 +1091,13 @@
         <v>29</v>
       </c>
       <c r="K15">
-        <v>0.8837209302325582</v>
+        <v>0.8723404255319149</v>
       </c>
       <c r="L15">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M15">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1106,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1114,13 +1117,13 @@
         <v>30</v>
       </c>
       <c r="K16">
-        <v>0.86875</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="L16">
-        <v>139</v>
+        <v>50</v>
       </c>
       <c r="M16">
-        <v>139</v>
+        <v>50</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1132,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1140,13 +1143,13 @@
         <v>31</v>
       </c>
       <c r="K17">
-        <v>0.8620689655172413</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L17">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="M17">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1158,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1192,13 +1195,13 @@
         <v>33</v>
       </c>
       <c r="K19">
-        <v>0.8253968253968254</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="L19">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M19">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1210,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1218,13 +1221,13 @@
         <v>34</v>
       </c>
       <c r="K20">
-        <v>0.7916666666666666</v>
+        <v>0.8</v>
       </c>
       <c r="L20">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M20">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1244,13 +1247,13 @@
         <v>35</v>
       </c>
       <c r="K21">
-        <v>0.78</v>
+        <v>0.7708333333333334</v>
       </c>
       <c r="L21">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M21">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1270,13 +1273,13 @@
         <v>36</v>
       </c>
       <c r="K22">
-        <v>0.775</v>
+        <v>0.7529411764705882</v>
       </c>
       <c r="L22">
-        <v>31</v>
+        <v>256</v>
       </c>
       <c r="M22">
-        <v>31</v>
+        <v>256</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1288,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>9</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1296,13 +1299,13 @@
         <v>37</v>
       </c>
       <c r="K23">
-        <v>0.7558823529411764</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="L23">
-        <v>257</v>
+        <v>26</v>
       </c>
       <c r="M23">
-        <v>257</v>
+        <v>26</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1314,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>83</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1322,13 +1325,13 @@
         <v>38</v>
       </c>
       <c r="K24">
-        <v>0.7254237288135593</v>
+        <v>0.7389830508474576</v>
       </c>
       <c r="L24">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="M24">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1340,7 +1343,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1348,13 +1351,13 @@
         <v>39</v>
       </c>
       <c r="K25">
-        <v>0.7142857142857143</v>
+        <v>0.725</v>
       </c>
       <c r="L25">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M25">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1366,7 +1369,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1374,13 +1377,13 @@
         <v>40</v>
       </c>
       <c r="K26">
-        <v>0.6914893617021277</v>
+        <v>0.7112970711297071</v>
       </c>
       <c r="L26">
-        <v>65</v>
+        <v>170</v>
       </c>
       <c r="M26">
-        <v>65</v>
+        <v>170</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1392,7 +1395,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>29</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1400,13 +1403,13 @@
         <v>41</v>
       </c>
       <c r="K27">
-        <v>0.6903765690376569</v>
+        <v>0.6914893617021277</v>
       </c>
       <c r="L27">
-        <v>165</v>
+        <v>65</v>
       </c>
       <c r="M27">
-        <v>165</v>
+        <v>65</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1418,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>74</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1426,13 +1429,13 @@
         <v>42</v>
       </c>
       <c r="K28">
-        <v>0.676923076923077</v>
+        <v>0.6741573033707865</v>
       </c>
       <c r="L28">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="M28">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1444,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1452,13 +1455,13 @@
         <v>43</v>
       </c>
       <c r="K29">
-        <v>0.6629213483146067</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L29">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="M29">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1470,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1478,13 +1481,13 @@
         <v>44</v>
       </c>
       <c r="K30">
-        <v>0.6428571428571429</v>
+        <v>0.6142857142857143</v>
       </c>
       <c r="L30">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M30">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1496,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1504,13 +1507,13 @@
         <v>45</v>
       </c>
       <c r="K31">
-        <v>0.5686274509803921</v>
+        <v>0.5952380952380952</v>
       </c>
       <c r="L31">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M31">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1522,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1556,13 +1559,13 @@
         <v>47</v>
       </c>
       <c r="K33">
-        <v>0.3461538461538461</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="L33">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M33">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1574,7 +1577,33 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>51</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K34">
+        <v>0.4487179487179487</v>
+      </c>
+      <c r="L34">
+        <v>35</v>
+      </c>
+      <c r="M34">
+        <v>35</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
